--- a/data/pca/factorExposure/factorExposure_2010-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-16.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006185389417037473</v>
+        <v>0.01701910548337958</v>
       </c>
       <c r="C2">
-        <v>-0.01408517538365063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0009258365134002534</v>
+      </c>
+      <c r="D2">
+        <v>0.007026061852533503</v>
+      </c>
+      <c r="E2">
+        <v>0.0001061793724002195</v>
+      </c>
+      <c r="F2">
+        <v>0.00886407049043988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03347631958765744</v>
+        <v>0.09375868692371564</v>
       </c>
       <c r="C4">
-        <v>-0.1241492125108595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01547686017652227</v>
+      </c>
+      <c r="D4">
+        <v>0.08333856828358591</v>
+      </c>
+      <c r="E4">
+        <v>-0.02933112389754234</v>
+      </c>
+      <c r="F4">
+        <v>-0.02813914757549327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04431605290457304</v>
+        <v>0.1564897672008499</v>
       </c>
       <c r="C6">
-        <v>-0.1108408060706719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02488433348369685</v>
+      </c>
+      <c r="D6">
+        <v>-0.02274281724993026</v>
+      </c>
+      <c r="E6">
+        <v>-0.01133194019754478</v>
+      </c>
+      <c r="F6">
+        <v>-0.05203368636422047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009001310611115381</v>
+        <v>0.0598035111642416</v>
       </c>
       <c r="C7">
-        <v>-0.07344371221380226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.00102218370231325</v>
+      </c>
+      <c r="D7">
+        <v>0.05158083939605092</v>
+      </c>
+      <c r="E7">
+        <v>-0.01333313622243976</v>
+      </c>
+      <c r="F7">
+        <v>-0.0439138166356329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.007367953113019241</v>
+        <v>0.05858172263823506</v>
       </c>
       <c r="C8">
-        <v>-0.05463885386446141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01366892809001332</v>
+      </c>
+      <c r="D8">
+        <v>0.03166087998321538</v>
+      </c>
+      <c r="E8">
+        <v>-0.01529276571193077</v>
+      </c>
+      <c r="F8">
+        <v>0.03239710794953282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02882733434116388</v>
+        <v>0.07182733538165363</v>
       </c>
       <c r="C9">
-        <v>-0.09594893304867692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01138963245374183</v>
+      </c>
+      <c r="D9">
+        <v>0.08421300051591792</v>
+      </c>
+      <c r="E9">
+        <v>-0.02400624860592592</v>
+      </c>
+      <c r="F9">
+        <v>-0.04772273951959165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.005635258045798688</v>
+        <v>0.09535204830451934</v>
       </c>
       <c r="C10">
-        <v>-0.05760516764175384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01876993152543679</v>
+      </c>
+      <c r="D10">
+        <v>-0.1698218358422151</v>
+      </c>
+      <c r="E10">
+        <v>0.03952592850785724</v>
+      </c>
+      <c r="F10">
+        <v>0.0587356835505313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03133393893142714</v>
+        <v>0.08769601695711807</v>
       </c>
       <c r="C11">
-        <v>-0.09950533372610749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01096395938860632</v>
+      </c>
+      <c r="D11">
+        <v>0.1174681106348573</v>
+      </c>
+      <c r="E11">
+        <v>-0.04753879234578991</v>
+      </c>
+      <c r="F11">
+        <v>-0.01837311691734989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02854352416247563</v>
+        <v>0.09237609292073097</v>
       </c>
       <c r="C12">
-        <v>-0.1079756718396778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008357640509758296</v>
+      </c>
+      <c r="D12">
+        <v>0.128850325496892</v>
+      </c>
+      <c r="E12">
+        <v>-0.04821417793871858</v>
+      </c>
+      <c r="F12">
+        <v>-0.01657207956078248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008515396438782291</v>
+        <v>0.04347488523315005</v>
       </c>
       <c r="C13">
-        <v>-0.0392372121503845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003857523831171711</v>
+      </c>
+      <c r="D13">
+        <v>0.04817496107157016</v>
+      </c>
+      <c r="E13">
+        <v>0.01303751321971762</v>
+      </c>
+      <c r="F13">
+        <v>-0.006711701812176697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01470878636233222</v>
+        <v>0.02248194205733099</v>
       </c>
       <c r="C14">
-        <v>-0.02415304741907965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01390681107434785</v>
+      </c>
+      <c r="D14">
+        <v>0.0331449520814804</v>
+      </c>
+      <c r="E14">
+        <v>-0.0169705223885372</v>
+      </c>
+      <c r="F14">
+        <v>-0.01631264447526986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01228391067223203</v>
+        <v>0.03111481605363279</v>
       </c>
       <c r="C15">
-        <v>-0.02812521316792365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.00509824844729657</v>
+      </c>
+      <c r="D15">
+        <v>0.04510553872000959</v>
+      </c>
+      <c r="E15">
+        <v>-0.007402061178796568</v>
+      </c>
+      <c r="F15">
+        <v>-0.02681543987964397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01911231376835936</v>
+        <v>0.07330958708831467</v>
       </c>
       <c r="C16">
-        <v>-0.1068183749134878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.001944563042753677</v>
+      </c>
+      <c r="D16">
+        <v>0.1262659684880229</v>
+      </c>
+      <c r="E16">
+        <v>-0.06312380713981915</v>
+      </c>
+      <c r="F16">
+        <v>-0.01994618015677162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02638898985959387</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003761171970846761</v>
+      </c>
+      <c r="D18">
+        <v>0.02037548008381813</v>
+      </c>
+      <c r="E18">
+        <v>0.004192927535120379</v>
+      </c>
+      <c r="F18">
+        <v>0.01367907807539078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0147751843488339</v>
+        <v>0.06005483168925095</v>
       </c>
       <c r="C20">
-        <v>-0.06224690801176107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0003882744190836339</v>
+      </c>
+      <c r="D20">
+        <v>0.07690809177500396</v>
+      </c>
+      <c r="E20">
+        <v>-0.05577082754669644</v>
+      </c>
+      <c r="F20">
+        <v>-0.02299351383115313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01170714556992154</v>
+        <v>0.0389947232625733</v>
       </c>
       <c r="C21">
-        <v>-0.01981022852379114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006443324071508468</v>
+      </c>
+      <c r="D21">
+        <v>0.0357799206619078</v>
+      </c>
+      <c r="E21">
+        <v>0.00796225465853438</v>
+      </c>
+      <c r="F21">
+        <v>0.02262629513497847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.002325205497958022</v>
+        <v>0.04471924631811171</v>
       </c>
       <c r="C22">
-        <v>-0.03654634133602874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0005034346883562777</v>
+      </c>
+      <c r="D22">
+        <v>0.002576769609580667</v>
+      </c>
+      <c r="E22">
+        <v>-0.02634939273727651</v>
+      </c>
+      <c r="F22">
+        <v>0.01389341555105978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002351183618438352</v>
+        <v>0.04475283517610973</v>
       </c>
       <c r="C23">
-        <v>-0.03665583206706204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0005239018109906858</v>
+      </c>
+      <c r="D23">
+        <v>0.002668601766112636</v>
+      </c>
+      <c r="E23">
+        <v>-0.02665836587575357</v>
+      </c>
+      <c r="F23">
+        <v>0.0133695358587653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02135365540418353</v>
+        <v>0.0795537470980202</v>
       </c>
       <c r="C24">
-        <v>-0.1060912976364918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002615880389634851</v>
+      </c>
+      <c r="D24">
+        <v>0.1207386095081597</v>
+      </c>
+      <c r="E24">
+        <v>-0.05096448658758179</v>
+      </c>
+      <c r="F24">
+        <v>-0.02107764239376737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02591534610499769</v>
+        <v>0.08503513643419952</v>
       </c>
       <c r="C25">
-        <v>-0.1100588292540776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.00484398580747221</v>
+      </c>
+      <c r="D25">
+        <v>0.1096767134638623</v>
+      </c>
+      <c r="E25">
+        <v>-0.0335483682523871</v>
+      </c>
+      <c r="F25">
+        <v>-0.02374212240577962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02310398376443107</v>
+        <v>0.05591758041121964</v>
       </c>
       <c r="C26">
-        <v>-0.04314831786505405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01439010682108729</v>
+      </c>
+      <c r="D26">
+        <v>0.04165466407382312</v>
+      </c>
+      <c r="E26">
+        <v>-0.02661044245891821</v>
+      </c>
+      <c r="F26">
+        <v>0.01092628369349196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.005132815432266416</v>
+        <v>0.142517368273192</v>
       </c>
       <c r="C28">
-        <v>-0.04838779006772558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01826121283965057</v>
+      </c>
+      <c r="D28">
+        <v>-0.2647953485545396</v>
+      </c>
+      <c r="E28">
+        <v>0.06908626702640819</v>
+      </c>
+      <c r="F28">
+        <v>-0.01657366385501472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01578464279228702</v>
+        <v>0.02662925660463192</v>
       </c>
       <c r="C29">
-        <v>-0.02728665915484536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008066500407191582</v>
+      </c>
+      <c r="D29">
+        <v>0.03259529858798878</v>
+      </c>
+      <c r="E29">
+        <v>-0.01121751665707195</v>
+      </c>
+      <c r="F29">
+        <v>0.01351705688907203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0217192234091505</v>
+        <v>0.06170942324741184</v>
       </c>
       <c r="C30">
-        <v>-0.123195097807026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004233226956888029</v>
+      </c>
+      <c r="D30">
+        <v>0.08602943659294485</v>
+      </c>
+      <c r="E30">
+        <v>-0.02300192913683335</v>
+      </c>
+      <c r="F30">
+        <v>-0.08939317064195873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02501260742237521</v>
+        <v>0.04920027256194731</v>
       </c>
       <c r="C31">
-        <v>-0.03027626552150314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01505917762411613</v>
+      </c>
+      <c r="D31">
+        <v>0.02571478115378304</v>
+      </c>
+      <c r="E31">
+        <v>-0.02722137103140197</v>
+      </c>
+      <c r="F31">
+        <v>0.005601034515381236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01135950507501788</v>
+        <v>0.04869461693511712</v>
       </c>
       <c r="C32">
-        <v>-0.05973331104496193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001315084928009632</v>
+      </c>
+      <c r="D32">
+        <v>0.03670525224896878</v>
+      </c>
+      <c r="E32">
+        <v>-0.02983718274992394</v>
+      </c>
+      <c r="F32">
+        <v>5.342648637147462e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02770705407053203</v>
+        <v>0.08939591719776137</v>
       </c>
       <c r="C33">
-        <v>-0.1096940545353282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008171361998853604</v>
+      </c>
+      <c r="D33">
+        <v>0.09834030571689104</v>
+      </c>
+      <c r="E33">
+        <v>-0.04579186507803552</v>
+      </c>
+      <c r="F33">
+        <v>-0.0367649942554234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02978563128665778</v>
+        <v>0.06803906118939881</v>
       </c>
       <c r="C34">
-        <v>-0.08971936988146541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.0113934751771489</v>
+      </c>
+      <c r="D34">
+        <v>0.1056583633271227</v>
+      </c>
+      <c r="E34">
+        <v>-0.03637175902509315</v>
+      </c>
+      <c r="F34">
+        <v>-0.03248001214722131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003575818710861215</v>
+        <v>0.02437606039953275</v>
       </c>
       <c r="C35">
-        <v>-0.01391874289707829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002385868637637967</v>
+      </c>
+      <c r="D35">
+        <v>0.0124751423390369</v>
+      </c>
+      <c r="E35">
+        <v>-0.01098041593756128</v>
+      </c>
+      <c r="F35">
+        <v>-0.005980984559680292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01149279751645589</v>
+        <v>0.02492716355741271</v>
       </c>
       <c r="C36">
-        <v>-0.02680500141717394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007246234975240742</v>
+      </c>
+      <c r="D36">
+        <v>0.0396166180325602</v>
+      </c>
+      <c r="E36">
+        <v>-0.01684034582080495</v>
+      </c>
+      <c r="F36">
+        <v>-0.01237582627267944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008584862990530824</v>
+        <v>0.001503236858319565</v>
       </c>
       <c r="C38">
-        <v>-0.005575687540449091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002225123334052221</v>
+      </c>
+      <c r="D38">
+        <v>0.0007179145321844506</v>
+      </c>
+      <c r="E38">
+        <v>-0.00112913104131509</v>
+      </c>
+      <c r="F38">
+        <v>0.0009936023740814729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04527669127660616</v>
+        <v>0.1070848815658137</v>
       </c>
       <c r="C39">
-        <v>-0.1655931104956647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01635538435081573</v>
+      </c>
+      <c r="D39">
+        <v>0.1531422394380622</v>
+      </c>
+      <c r="E39">
+        <v>-0.06050116590720718</v>
+      </c>
+      <c r="F39">
+        <v>-0.02197259703595261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009088101423448458</v>
+        <v>0.03793611823434568</v>
       </c>
       <c r="C40">
-        <v>-0.007283803439552503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.006987750468686094</v>
+      </c>
+      <c r="D40">
+        <v>0.03297467663170363</v>
+      </c>
+      <c r="E40">
+        <v>-0.001621158388308941</v>
+      </c>
+      <c r="F40">
+        <v>0.01590212772415945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01400184588532827</v>
+        <v>0.02663731373422571</v>
       </c>
       <c r="C41">
-        <v>-0.01843453906484227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006522811536565751</v>
+      </c>
+      <c r="D41">
+        <v>0.01084530294920353</v>
+      </c>
+      <c r="E41">
+        <v>-0.01226020928756984</v>
+      </c>
+      <c r="F41">
+        <v>0.00842527862331093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01345096604022346</v>
+        <v>0.04015207634423161</v>
       </c>
       <c r="C43">
-        <v>-0.02660662045491489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006574177374545713</v>
+      </c>
+      <c r="D43">
+        <v>0.02051885657174609</v>
+      </c>
+      <c r="E43">
+        <v>-0.02364329623696786</v>
+      </c>
+      <c r="F43">
+        <v>0.01410684459331978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03948257674326327</v>
+        <v>0.07675868942393831</v>
       </c>
       <c r="C44">
-        <v>-0.1329432987822739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0206679864574366</v>
+      </c>
+      <c r="D44">
+        <v>0.09882843225613565</v>
+      </c>
+      <c r="E44">
+        <v>-0.073806070119801</v>
+      </c>
+      <c r="F44">
+        <v>-0.1664039479250375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004520605938584743</v>
+        <v>0.02384723635528294</v>
       </c>
       <c r="C46">
-        <v>-0.0122376273083824</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003733910821750708</v>
+      </c>
+      <c r="D46">
+        <v>0.01157974239038316</v>
+      </c>
+      <c r="E46">
+        <v>-0.02276487213552989</v>
+      </c>
+      <c r="F46">
+        <v>0.0005535291745517614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01627739439859734</v>
+        <v>0.05080487894912922</v>
       </c>
       <c r="C47">
-        <v>-0.04191393167073321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003315158526304046</v>
+      </c>
+      <c r="D47">
+        <v>0.01314843643810125</v>
+      </c>
+      <c r="E47">
+        <v>-0.02229238536278777</v>
+      </c>
+      <c r="F47">
+        <v>0.03911273704272856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01386503819818506</v>
+        <v>0.04820230792712307</v>
       </c>
       <c r="C48">
-        <v>-0.04542630320500698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002420359455533916</v>
+      </c>
+      <c r="D48">
+        <v>0.05082963031214092</v>
+      </c>
+      <c r="E48">
+        <v>0.005002832611151141</v>
+      </c>
+      <c r="F48">
+        <v>-0.003643775622651045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04341478584470251</v>
+        <v>0.2025698730173727</v>
       </c>
       <c r="C49">
-        <v>-0.2144959993036924</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01807765163474902</v>
+      </c>
+      <c r="D49">
+        <v>-0.01176566426244738</v>
+      </c>
+      <c r="E49">
+        <v>-0.03206531881394623</v>
+      </c>
+      <c r="F49">
+        <v>-0.02969735675326217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02090793987377153</v>
+        <v>0.04916715750684587</v>
       </c>
       <c r="C50">
-        <v>-0.03861869087561747</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01112731905728276</v>
+      </c>
+      <c r="D50">
+        <v>0.02527494915367427</v>
+      </c>
+      <c r="E50">
+        <v>-0.02968452301662557</v>
+      </c>
+      <c r="F50">
+        <v>-0.006706452849777792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.001139450881081715</v>
+        <v>0.002234053125422457</v>
       </c>
       <c r="C51">
-        <v>-0.007829604503302055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.00057141127065683</v>
+      </c>
+      <c r="D51">
+        <v>-0.002372427705943893</v>
+      </c>
+      <c r="E51">
+        <v>2.261257423867036e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.003854639511466549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03486056389765441</v>
+        <v>0.1448115753977431</v>
       </c>
       <c r="C52">
-        <v>-0.136764510303312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01406313678154435</v>
+      </c>
+      <c r="D52">
+        <v>0.04868479593992012</v>
+      </c>
+      <c r="E52">
+        <v>-0.02412953995998003</v>
+      </c>
+      <c r="F52">
+        <v>-0.04086446587968051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03533979566695316</v>
+        <v>0.1734219452694795</v>
       </c>
       <c r="C53">
-        <v>-0.1524383580198664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01741613628431662</v>
+      </c>
+      <c r="D53">
+        <v>0.006555465979342491</v>
+      </c>
+      <c r="E53">
+        <v>-0.03553609562720002</v>
+      </c>
+      <c r="F53">
+        <v>-0.07360120240439623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0147813235145875</v>
+        <v>0.0219864692177981</v>
       </c>
       <c r="C54">
-        <v>-0.0489393380164469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01237162012408642</v>
+      </c>
+      <c r="D54">
+        <v>0.03310504887466785</v>
+      </c>
+      <c r="E54">
+        <v>-0.01525876145462485</v>
+      </c>
+      <c r="F54">
+        <v>0.004649087970565425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02706786527443322</v>
+        <v>0.114236714170658</v>
       </c>
       <c r="C55">
-        <v>-0.08626789967146539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01574045699344909</v>
+      </c>
+      <c r="D55">
+        <v>0.01015723427244074</v>
+      </c>
+      <c r="E55">
+        <v>-0.03107651694342841</v>
+      </c>
+      <c r="F55">
+        <v>-0.0463795468641341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03916781966002623</v>
+        <v>0.1773294580795305</v>
       </c>
       <c r="C56">
-        <v>-0.1549289940182094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01473647516351164</v>
+      </c>
+      <c r="D56">
+        <v>0.004436224967136745</v>
+      </c>
+      <c r="E56">
+        <v>-0.04152744836036319</v>
+      </c>
+      <c r="F56">
+        <v>-0.05124949414840787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0146451926687023</v>
+        <v>0.04673013155382899</v>
       </c>
       <c r="C58">
-        <v>-0.03891073276498822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001102961399391273</v>
+      </c>
+      <c r="D58">
+        <v>0.0669993863913433</v>
+      </c>
+      <c r="E58">
+        <v>-0.02516456495601024</v>
+      </c>
+      <c r="F58">
+        <v>0.04140228878480257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01289928238075769</v>
+        <v>0.1715161545863405</v>
       </c>
       <c r="C59">
-        <v>-0.1177445694458303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01872028568060348</v>
+      </c>
+      <c r="D59">
+        <v>-0.2218036926857513</v>
+      </c>
+      <c r="E59">
+        <v>0.04774393096090664</v>
+      </c>
+      <c r="F59">
+        <v>0.03253301558124468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04059745107286295</v>
+        <v>0.234709368678295</v>
       </c>
       <c r="C60">
-        <v>-0.2745100386016882</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.00365106664084322</v>
+      </c>
+      <c r="D60">
+        <v>0.04078260315039501</v>
+      </c>
+      <c r="E60">
+        <v>-0.01172345315812256</v>
+      </c>
+      <c r="F60">
+        <v>0.01693964542893659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03206250439370546</v>
+        <v>0.08305866808688384</v>
       </c>
       <c r="C61">
-        <v>-0.1207342265611157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.012248106162614</v>
+      </c>
+      <c r="D61">
+        <v>0.116413443903486</v>
+      </c>
+      <c r="E61">
+        <v>-0.03969031836844373</v>
+      </c>
+      <c r="F61">
+        <v>-0.008277743206349476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04327207928165406</v>
+        <v>0.1693654756704152</v>
       </c>
       <c r="C62">
-        <v>-0.1635927732912649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01834598384326045</v>
+      </c>
+      <c r="D62">
+        <v>0.009533548534734008</v>
+      </c>
+      <c r="E62">
+        <v>-0.03843986304265994</v>
+      </c>
+      <c r="F62">
+        <v>-0.03379226351406833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01353384572600566</v>
+        <v>0.04349581970325359</v>
       </c>
       <c r="C63">
-        <v>-0.05377970665303131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002358220070713726</v>
+      </c>
+      <c r="D63">
+        <v>0.05648392826111165</v>
+      </c>
+      <c r="E63">
+        <v>-0.02088894023939285</v>
+      </c>
+      <c r="F63">
+        <v>-0.004738817381337411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02573218253864907</v>
+        <v>0.110450620967253</v>
       </c>
       <c r="C64">
-        <v>-0.09633559250476034</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01126771207892582</v>
+      </c>
+      <c r="D64">
+        <v>0.04202770636452494</v>
+      </c>
+      <c r="E64">
+        <v>-0.02158827048300286</v>
+      </c>
+      <c r="F64">
+        <v>-0.02862009273948597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04671795466258358</v>
+        <v>0.1473661437118848</v>
       </c>
       <c r="C65">
-        <v>-0.1108031425846536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03160835730774673</v>
+      </c>
+      <c r="D65">
+        <v>-0.04201667200653329</v>
+      </c>
+      <c r="E65">
+        <v>-0.001935065536903278</v>
+      </c>
+      <c r="F65">
+        <v>-0.04567839462977433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04537739560384771</v>
+        <v>0.1276779169572566</v>
       </c>
       <c r="C66">
-        <v>-0.1929832285791705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01423985388898215</v>
+      </c>
+      <c r="D66">
+        <v>0.1427609323451736</v>
+      </c>
+      <c r="E66">
+        <v>-0.06797895738131499</v>
+      </c>
+      <c r="F66">
+        <v>-0.02697198748536213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01577751802826829</v>
+        <v>0.06331342551122145</v>
       </c>
       <c r="C67">
-        <v>-0.07282440504838374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.002774102558776603</v>
+      </c>
+      <c r="D67">
+        <v>0.05573706912716016</v>
+      </c>
+      <c r="E67">
+        <v>-0.01669381959692698</v>
+      </c>
+      <c r="F67">
+        <v>0.03945412881566848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01601718615710714</v>
+        <v>0.1171801025260451</v>
       </c>
       <c r="C68">
-        <v>-0.04325804924812179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02822060350019114</v>
+      </c>
+      <c r="D68">
+        <v>-0.2599126054328136</v>
+      </c>
+      <c r="E68">
+        <v>0.08587414112626797</v>
+      </c>
+      <c r="F68">
+        <v>-0.01614562154658039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009870447643169552</v>
+        <v>0.03926501198081612</v>
       </c>
       <c r="C69">
-        <v>-0.03207914683618707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.000927551612400301</v>
+      </c>
+      <c r="D69">
+        <v>0.008035371858470112</v>
+      </c>
+      <c r="E69">
+        <v>-0.02397302735494801</v>
+      </c>
+      <c r="F69">
+        <v>0.005616752558489802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.00106189383456978</v>
+        <v>0.06287506331778914</v>
       </c>
       <c r="C70">
-        <v>-0.03298167817509381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02875011917005448</v>
+      </c>
+      <c r="D70">
+        <v>0.02865172995976124</v>
+      </c>
+      <c r="E70">
+        <v>0.04899658213301935</v>
+      </c>
+      <c r="F70">
+        <v>0.2262194824898537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02043944667147906</v>
+        <v>0.1365174399589076</v>
       </c>
       <c r="C71">
-        <v>-0.05223347946467827</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.0328885211270851</v>
+      </c>
+      <c r="D71">
+        <v>-0.2736903104072534</v>
+      </c>
+      <c r="E71">
+        <v>0.09550064899994204</v>
+      </c>
+      <c r="F71">
+        <v>-0.02026247668038334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03998352969584536</v>
+        <v>0.1417602034966139</v>
       </c>
       <c r="C72">
-        <v>-0.1245386262880025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0252017546190749</v>
+      </c>
+      <c r="D72">
+        <v>0.0001973860910751646</v>
+      </c>
+      <c r="E72">
+        <v>-0.04258711901313852</v>
+      </c>
+      <c r="F72">
+        <v>-0.03123668200460538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04490409331582736</v>
+        <v>0.2009711626057898</v>
       </c>
       <c r="C73">
-        <v>-0.2106802462258645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0119779388755096</v>
+      </c>
+      <c r="D73">
+        <v>0.01597663071786192</v>
+      </c>
+      <c r="E73">
+        <v>-0.06606564496848361</v>
+      </c>
+      <c r="F73">
+        <v>-0.02628519994937732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02578828541821311</v>
+        <v>0.09449899382169093</v>
       </c>
       <c r="C74">
-        <v>-0.1105506820699501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01244428360956965</v>
+      </c>
+      <c r="D74">
+        <v>0.01890793262791093</v>
+      </c>
+      <c r="E74">
+        <v>-0.04904954532060477</v>
+      </c>
+      <c r="F74">
+        <v>-0.05221205828587376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04805979049336911</v>
+        <v>0.1284515818049169</v>
       </c>
       <c r="C75">
-        <v>-0.1300343419748828</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02686210950381707</v>
+      </c>
+      <c r="D75">
+        <v>0.032311573952174</v>
+      </c>
+      <c r="E75">
+        <v>-0.06089432698026268</v>
+      </c>
+      <c r="F75">
+        <v>-0.01736512760677273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.001325929754671985</v>
+        <v>0.002694273292245747</v>
       </c>
       <c r="C76">
-        <v>-0.01043368046005314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0006874544824757612</v>
+      </c>
+      <c r="D76">
+        <v>-0.0020388086932208</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002474016087761017</v>
+      </c>
+      <c r="F76">
+        <v>-0.003406675065614144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02696061307452418</v>
+        <v>0.08006583896013715</v>
       </c>
       <c r="C77">
-        <v>-0.0912872477261982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008149644432842152</v>
+      </c>
+      <c r="D77">
+        <v>0.1206156312108268</v>
+      </c>
+      <c r="E77">
+        <v>-0.04041376985529821</v>
+      </c>
+      <c r="F77">
+        <v>-0.03133291846760039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06383018328632885</v>
+        <v>0.1033451367055475</v>
       </c>
       <c r="C78">
-        <v>-0.1113178773909435</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03954053708699638</v>
+      </c>
+      <c r="D78">
+        <v>0.1149687378062818</v>
+      </c>
+      <c r="E78">
+        <v>-0.07852643776069278</v>
+      </c>
+      <c r="F78">
+        <v>-0.05686148575977101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04246092305419848</v>
+        <v>0.164098277385463</v>
       </c>
       <c r="C79">
-        <v>-0.1397005426612041</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02094496808828631</v>
+      </c>
+      <c r="D79">
+        <v>0.01855091498322207</v>
+      </c>
+      <c r="E79">
+        <v>-0.05017973257611699</v>
+      </c>
+      <c r="F79">
+        <v>-0.008446630675165802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.005973305286997859</v>
+        <v>0.08096573145812058</v>
       </c>
       <c r="C80">
-        <v>-0.09237698769851457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.001113981906961478</v>
+      </c>
+      <c r="D80">
+        <v>0.05823445950546023</v>
+      </c>
+      <c r="E80">
+        <v>-0.03497090896780954</v>
+      </c>
+      <c r="F80">
+        <v>0.02999244538165048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04706772985013865</v>
+        <v>0.1228512142214842</v>
       </c>
       <c r="C81">
-        <v>-0.1517511950879689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03084258859688968</v>
+      </c>
+      <c r="D81">
+        <v>0.01632859550715607</v>
+      </c>
+      <c r="E81">
+        <v>-0.06095515454698034</v>
+      </c>
+      <c r="F81">
+        <v>-0.01283068934887875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04219058328152905</v>
+        <v>0.1646032033674952</v>
       </c>
       <c r="C82">
-        <v>-0.1704864709857124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02315539919932144</v>
+      </c>
+      <c r="D82">
+        <v>0.006750092746962949</v>
+      </c>
+      <c r="E82">
+        <v>-0.03428261534400334</v>
+      </c>
+      <c r="F82">
+        <v>-0.07535710073074109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01699327434234815</v>
+        <v>0.0616615023125572</v>
       </c>
       <c r="C83">
-        <v>-0.08039344750817876</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003130001088110814</v>
+      </c>
+      <c r="D83">
+        <v>0.04910022112213621</v>
+      </c>
+      <c r="E83">
+        <v>-0.005037216804782293</v>
+      </c>
+      <c r="F83">
+        <v>0.03952821766543639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0258080222218521</v>
+        <v>0.05833235252360518</v>
       </c>
       <c r="C84">
-        <v>-0.06944936329667876</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01084450305081622</v>
+      </c>
+      <c r="D84">
+        <v>0.06563687757575905</v>
+      </c>
+      <c r="E84">
+        <v>-0.006459792035787488</v>
+      </c>
+      <c r="F84">
+        <v>-0.00858438558493156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.0422168077173418</v>
+        <v>0.1380652081354876</v>
       </c>
       <c r="C85">
-        <v>-0.1167797598902543</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02671978851466328</v>
+      </c>
+      <c r="D85">
+        <v>0.01204155722887612</v>
+      </c>
+      <c r="E85">
+        <v>-0.04186017826461541</v>
+      </c>
+      <c r="F85">
+        <v>-0.04714623224537151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02190528728152616</v>
+        <v>0.09693645247689768</v>
       </c>
       <c r="C86">
-        <v>-0.107015438129065</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.005987887407407437</v>
+      </c>
+      <c r="D86">
+        <v>0.03850626628272821</v>
+      </c>
+      <c r="E86">
+        <v>-0.1607752624800795</v>
+      </c>
+      <c r="F86">
+        <v>0.9022771697700568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04680547723919903</v>
+        <v>0.09576142432791847</v>
       </c>
       <c r="C87">
-        <v>-0.1061856710154066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02165236806064506</v>
+      </c>
+      <c r="D87">
+        <v>0.09254521686861662</v>
+      </c>
+      <c r="E87">
+        <v>0.0529425670418377</v>
+      </c>
+      <c r="F87">
+        <v>-0.06738684125288029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01538172397903696</v>
+        <v>0.06086993568654343</v>
       </c>
       <c r="C88">
-        <v>-0.05194651247324085</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002374659430559641</v>
+      </c>
+      <c r="D88">
+        <v>0.05036873825366175</v>
+      </c>
+      <c r="E88">
+        <v>-0.0258794636279776</v>
+      </c>
+      <c r="F88">
+        <v>-0.01077864307819776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.002520617489171504</v>
+        <v>0.1349561738839817</v>
       </c>
       <c r="C89">
-        <v>-0.08771719199078085</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01045936742363657</v>
+      </c>
+      <c r="D89">
+        <v>-0.2508001402062089</v>
+      </c>
+      <c r="E89">
+        <v>0.08975911543872954</v>
+      </c>
+      <c r="F89">
+        <v>-0.002258028669705689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.0197927860284663</v>
+        <v>0.1484741772939061</v>
       </c>
       <c r="C90">
-        <v>-0.05789657403307367</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02865568054671684</v>
+      </c>
+      <c r="D90">
+        <v>-0.2664549947709191</v>
+      </c>
+      <c r="E90">
+        <v>0.1099801226097357</v>
+      </c>
+      <c r="F90">
+        <v>-0.007691997957695063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02524840257585635</v>
+        <v>0.119555724024583</v>
       </c>
       <c r="C91">
-        <v>-0.09215142317045773</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01741353567478286</v>
+      </c>
+      <c r="D91">
+        <v>-0.01046523626356892</v>
+      </c>
+      <c r="E91">
+        <v>-0.05759216279068099</v>
+      </c>
+      <c r="F91">
+        <v>0.009574745468407189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.00120746614414341</v>
+        <v>0.1484472519803331</v>
       </c>
       <c r="C92">
-        <v>-0.07883570669525319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02075917407113378</v>
+      </c>
+      <c r="D92">
+        <v>-0.291572585402648</v>
+      </c>
+      <c r="E92">
+        <v>0.1038095785738067</v>
+      </c>
+      <c r="F92">
+        <v>0.0008830907088321249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.0144585964826299</v>
+        <v>0.1515843733688756</v>
       </c>
       <c r="C93">
-        <v>-0.06369294895023989</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02471699810796315</v>
+      </c>
+      <c r="D93">
+        <v>-0.2656702465689627</v>
+      </c>
+      <c r="E93">
+        <v>0.07691724021087785</v>
+      </c>
+      <c r="F93">
+        <v>-0.008782084838281979</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04950166644470536</v>
+        <v>0.1319341411836983</v>
       </c>
       <c r="C94">
-        <v>-0.1537365825988972</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0238763397932394</v>
+      </c>
+      <c r="D94">
+        <v>0.04349336615273035</v>
+      </c>
+      <c r="E94">
+        <v>-0.06140207704155126</v>
+      </c>
+      <c r="F94">
+        <v>-0.03397725505517812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.04077127730873098</v>
+        <v>0.1256373186798777</v>
       </c>
       <c r="C95">
-        <v>-0.1245539718692541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004382356390559868</v>
+      </c>
+      <c r="D95">
+        <v>0.0936142110208612</v>
+      </c>
+      <c r="E95">
+        <v>-0.04650176523439404</v>
+      </c>
+      <c r="F95">
+        <v>0.011949058429329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.966920043533285</v>
+        <v>0.1006053509011526</v>
       </c>
       <c r="C96">
-        <v>-0.2360366258791033</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9884291689197586</v>
+      </c>
+      <c r="D96">
+        <v>-0.03944489016363192</v>
+      </c>
+      <c r="E96">
+        <v>-0.05848444733146851</v>
+      </c>
+      <c r="F96">
+        <v>-0.04194858948641481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01778705822275708</v>
+        <v>0.189797478746922</v>
       </c>
       <c r="C97">
-        <v>-0.1749665222782605</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009507093260343543</v>
+      </c>
+      <c r="D97">
+        <v>-0.01480575829730349</v>
+      </c>
+      <c r="E97">
+        <v>-0.008230833330896151</v>
+      </c>
+      <c r="F97">
+        <v>0.09781039132863013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03662480813676129</v>
+        <v>0.2062328996955017</v>
       </c>
       <c r="C98">
-        <v>-0.2082792073657634</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007387672861566267</v>
+      </c>
+      <c r="D98">
+        <v>0.008380742515112059</v>
+      </c>
+      <c r="E98">
+        <v>0.09545209483280342</v>
+      </c>
+      <c r="F98">
+        <v>0.09461296221547331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003670106225572765</v>
+        <v>0.05589907196266926</v>
       </c>
       <c r="C99">
-        <v>-0.05401566066159441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004546563184549742</v>
+      </c>
+      <c r="D99">
+        <v>0.03782938496813008</v>
+      </c>
+      <c r="E99">
+        <v>-0.02346056021867134</v>
+      </c>
+      <c r="F99">
+        <v>0.001915271315575226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0021927123269472</v>
+        <v>0.1241855432274556</v>
       </c>
       <c r="C100">
-        <v>-0.1318789865896812</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05354625583310184</v>
+      </c>
+      <c r="D100">
+        <v>0.3460932282929602</v>
+      </c>
+      <c r="E100">
+        <v>0.8940522109875574</v>
+      </c>
+      <c r="F100">
+        <v>0.08398178482394827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01581475539556057</v>
+        <v>0.02655197578427988</v>
       </c>
       <c r="C101">
-        <v>-0.02721762203978579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008074234866123318</v>
+      </c>
+      <c r="D101">
+        <v>0.03229788945209281</v>
+      </c>
+      <c r="E101">
+        <v>-0.01061783805622974</v>
+      </c>
+      <c r="F101">
+        <v>0.01498437387632767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
